--- a/project/DCR/data/销量上报1个条件2个不符合条件.xlsx
+++ b/project/DCR/data/销量上报1个条件2个不符合条件.xlsx
@@ -1132,7 +1132,7 @@
     <row r="2" ht="27" customHeight="1" s="7">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -1178,7 +1178,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -1224,7 +1224,7 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
